--- a/guild_members.xlsx
+++ b/guild_members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E659"/>
+  <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>offline</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nando Boltada</t>
+          <t>Murileiira</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>363</v>
+        <v>262</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2318,16 +2318,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nano Ironheart</t>
+          <t>Nando Boltada</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Oogas</t>
+          <t>Nano Ironheart</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2368,16 +2368,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Paladin Luxus</t>
+          <t>Oogas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2393,16 +2393,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Palasauro</t>
+          <t>Paladin Luxus</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Peixe Feliz</t>
+          <t>Palasauro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2443,16 +2443,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pirarucu Tancudo</t>
+          <t>Peixe Feliz</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Prezepada Roots</t>
+          <t>Pirarucu Tancudo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2493,16 +2493,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Raymond Fritz</t>
+          <t>Prezepada Roots</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2518,16 +2518,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rico riquinho</t>
+          <t>Raymond Fritz</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2543,16 +2543,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Riptzera</t>
+          <t>Rico riquinho</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2568,16 +2568,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sammlizz</t>
+          <t>Riptzera</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2593,16 +2593,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Shaoz Arta</t>
+          <t>Sammlizz</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2618,16 +2618,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Skyline Rushz</t>
+          <t>Shaoz Arta</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2643,16 +2643,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Soooleeeess</t>
+          <t>Skyline Rushz</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2668,16 +2668,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strong Bullet</t>
+          <t>Soooleeeess</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2693,16 +2693,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Thor Tedras</t>
+          <t>Strong Bullet</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2718,16 +2718,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tornnado</t>
+          <t>Thor Tedras</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2743,16 +2743,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Usabow</t>
+          <t>Tornnado</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2768,16 +2768,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Vitorzerah Cansado</t>
+          <t>Usabow</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2793,16 +2793,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Vladzerah</t>
+          <t>Vitorzerah Cansado</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2818,16 +2818,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Volrus</t>
+          <t>Vladzerah</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2843,16 +2843,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Will Skyfal</t>
+          <t>Volrus</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2868,16 +2868,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Yasuoprata</t>
+          <t>Will Skyfal</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2893,16 +2893,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zuerin Knight</t>
+          <t>Yasuoprata</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2913,21 +2913,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Laudelino</t>
+          <t>Sem Rank</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Adalamae</t>
+          <t>Zuerin Knight</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2938,21 +2938,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sem Rank</t>
+          <t>Laudelino</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Adinux Etar</t>
+          <t>Adalamae</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2968,16 +2968,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Agro Alumbra</t>
+          <t>Adinux Etar</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2993,16 +2993,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Airazor Stalker</t>
+          <t>Agro Alumbra</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Al Sorna</t>
+          <t>Airazor Stalker</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Albano Marques</t>
+          <t>Al Sorna</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ally Ababwa</t>
+          <t>Albano Marques</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3093,16 +3093,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Alumbramento Secsi</t>
+          <t>Ally Ababwa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3118,16 +3118,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Alumbrinho</t>
+          <t>Alumbramento Secsi</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3143,16 +3143,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Andarillho (Original)</t>
+          <t>Alumbrinho</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3168,16 +3168,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Archangelus Lucifer</t>
+          <t>Andarillho (Original)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3193,16 +3193,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Arenoso Senpai</t>
+          <t>Archangelus Lucifer</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3218,16 +3218,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Arthero</t>
+          <t>Arenoso Senpai</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3243,16 +3243,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Asshorc</t>
+          <t>Arthero</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3268,16 +3268,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Azylach</t>
+          <t>Asshorc</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3293,16 +3293,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Baculejo Muita Erva</t>
+          <t>Azylach</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3318,16 +3318,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Balaahkero</t>
+          <t>Baculejo Muita Erva</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3343,16 +3343,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bao de Mao</t>
+          <t>Balaahkero</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Exalted Monk</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3368,16 +3368,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Bat King</t>
+          <t>Bao de Mao</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Exalted Monk</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3393,16 +3393,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Biel Obruxo</t>
+          <t>Bat King</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3418,16 +3418,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bolinho Sorcerer</t>
+          <t>Biel Obruxo</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3443,16 +3443,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Boombs</t>
+          <t>Bolinho Sorcerer</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3468,16 +3468,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Born Ingratidao</t>
+          <t>Boombs</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3493,16 +3493,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Bozera Maromba</t>
+          <t>Born Ingratidao</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3518,16 +3518,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Bracol</t>
+          <t>Bozera Maromba</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3543,16 +3543,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Calma Jadebro</t>
+          <t>Bracol</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -12393,16 +12393,16 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Loric Earthwarden</t>
+          <t>Lothrye</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -12418,16 +12418,16 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Lothrye</t>
+          <t>Lucas Alves</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Lucas Alves</t>
+          <t>Lucas da fresno</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -12468,16 +12468,16 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Lucas da fresno</t>
+          <t>Lucatiel de Mirrahh</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -12493,16 +12493,16 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Lucatiel de Mirrahh</t>
+          <t>Lucifelix</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Lucifelix</t>
+          <t>Lucrecia Oliiveer</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -12543,16 +12543,16 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Lucrecia Oliiveer</t>
+          <t>Lufsput</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Lufsput</t>
+          <t>Luis Docake</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -12577,7 +12577,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -12593,16 +12593,16 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Luis Docake</t>
+          <t>Luizin da Pexera</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -12618,16 +12618,16 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Luizin da Pexera</t>
+          <t>Luluzin do Cajado</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -12643,16 +12643,16 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Luluzin do Cajado</t>
+          <t>Maderudo Games</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -12668,16 +12668,16 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Maderudo Games</t>
+          <t>Maguinho Gelo Frio</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -12693,12 +12693,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Maguinho Gelo Frio</t>
+          <t>Mai Vuaida</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Mai Vuaida</t>
+          <t>Maisumbombinha prawar</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Maisumbombinha prawar</t>
+          <t>Major Masflam</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12752,7 +12752,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Major Masflam</t>
+          <t>Maldoso Sorc</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -12793,16 +12793,16 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Maldoso Sorc</t>
+          <t>Marcon Engov</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -12818,16 +12818,16 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Marcon Engov</t>
+          <t>Maria Luizaah</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -12843,16 +12843,16 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Maria Luizaah</t>
+          <t>Markiin Strong</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -12868,16 +12868,16 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Markiin Strong</t>
+          <t>Marretao Jogadorcaro</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -12893,16 +12893,16 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Marretao Jogadorcaro</t>
+          <t>Marshal Di Teach</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -12918,16 +12918,16 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Marshal Di Teach</t>
+          <t>Maxz Sorcerer</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -12943,16 +12943,16 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Maxz Sorcerer</t>
+          <t>Med Oiac</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Med Oiac</t>
+          <t>Megalodom</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -12993,16 +12993,16 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Megalodom</t>
+          <t>Meiameia jogador</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -13018,16 +13018,16 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Meiameia jogador</t>
+          <t>Meizekeen</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -13043,16 +13043,16 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Meizekeen</t>
+          <t>Messiah Of Jadebra</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -13068,16 +13068,16 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Messiah Of Jadebra</t>
+          <t>Mestre Nagareto</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -13093,16 +13093,16 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Mestre Nagareto</t>
+          <t>Mih Lunara</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mih Lunara</t>
+          <t>Miister Wiick</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -13143,16 +13143,16 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Miister Wiick</t>
+          <t>Milla Starfall</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -13168,16 +13168,16 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Milla Starfall</t>
+          <t>Mindingo Valente</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -13193,16 +13193,16 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Mindingo Valente</t>
+          <t>Mino Serelookaz</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Mino Serelookaz</t>
+          <t>Minotyr</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -13243,16 +13243,16 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Minotyr</t>
+          <t>Miragon Lytoken</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D513" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -13268,16 +13268,16 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Miragon Lytoken</t>
+          <t>Mitnnakesh</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -13293,16 +13293,16 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mitnnakesh</t>
+          <t>Mohn Drest</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Mohn Drest</t>
+          <t>Monana Tibbiani</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -13343,16 +13343,16 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Monana Tibbiani</t>
+          <t>Monge Andarilho</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Monk</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -14543,16 +14543,16 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Rucy</t>
+          <t>Rufus Truthfist</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Exalted Monk</t>
         </is>
       </c>
       <c r="D565" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -14568,16 +14568,16 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Rufus Truthfist</t>
+          <t>Sakaisano</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Exalted Monk</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D566" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Sakaisano</t>
+          <t>Salazar Grant</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -14618,16 +14618,16 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Salazar Grant</t>
+          <t>Samba No Paralyze</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D568" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -14643,16 +14643,16 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Samba No Paralyze</t>
+          <t>Samell</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D569" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Samell</t>
+          <t>Sanbece Amin</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -14677,7 +14677,7 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -14693,16 +14693,16 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sanbece Amin</t>
+          <t>Saniy</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D571" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -14718,16 +14718,16 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Saniy</t>
+          <t>Sarisfaction Crocante</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D572" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Sarisfaction Crocante</t>
+          <t>Satosix</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -14768,16 +14768,16 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Satosix</t>
+          <t>Scor Satius</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D574" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -14793,16 +14793,16 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Scor Satius</t>
+          <t>Scroll Dragon</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D575" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -14818,16 +14818,16 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Scroll Dragon</t>
+          <t>Seilaoqnom</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D576" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -14843,16 +14843,16 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Seilaoqnom</t>
+          <t>Sem Nome</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D577" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -14868,16 +14868,16 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Sem Nome</t>
+          <t>Senhor Calebe</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D578" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -14893,16 +14893,16 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Senhor Calebe</t>
+          <t>Seven All</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D579" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Seven All</t>
+          <t>Seventeen All</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -14927,7 +14927,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -14943,16 +14943,16 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Seventeen All</t>
+          <t>Shank Ruby</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D581" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -14968,16 +14968,16 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Shank Ruby</t>
+          <t>Shaolintbl</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D582" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -14993,16 +14993,16 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Shaolintbl</t>
+          <t>Sir Kakokkeska</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D583" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -15018,16 +15018,16 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Sir Kakokkeska</t>
+          <t>Sir Porret</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D584" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -15043,16 +15043,16 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Sir Porret</t>
+          <t>Sirios Azrax</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D585" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -15068,16 +15068,16 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Sirios Azrax</t>
+          <t>Six All</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D586" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Six All</t>
+          <t>Sixteen All</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -15102,7 +15102,7 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Sixteen All</t>
+          <t>Skuul Regando</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -15143,16 +15143,16 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Skuul Regando</t>
+          <t>Skyler Kimy</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D589" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -15168,16 +15168,16 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Skyler Kimy</t>
+          <t>Slyn Mesirut</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D590" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -15193,16 +15193,16 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Slyn Mesirut</t>
+          <t>Snake Eyes Bolt</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D591" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -15218,16 +15218,16 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Snake Eyes Bolt</t>
+          <t>Solar radiation</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D592" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -15243,16 +15243,16 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Solar radiation</t>
+          <t>Sorcerer Cafecomleite</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D593" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -15268,16 +15268,16 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sorcerer Cafecomleite</t>
+          <t>Soultalaz</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D594" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -15293,16 +15293,16 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Soultalaz</t>
+          <t>Soulvivo</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D595" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Soulvivo</t>
+          <t>Spinoteca Baronil</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -15327,7 +15327,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -15343,16 +15343,16 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Spinoteca Baronil</t>
+          <t>Srgustav</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D597" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -15368,16 +15368,16 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Srgustav</t>
+          <t>Stive Chateado</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D598" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -15393,12 +15393,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Stive Chateado</t>
+          <t>Stoner Windrunner</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -15418,16 +15418,16 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Stoner Windrunner</t>
+          <t>Storms Break</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D600" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -15443,16 +15443,16 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Storms Break</t>
+          <t>Striker Is Back</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D601" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -15468,16 +15468,16 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Striker Is Back</t>
+          <t>Strongtrick</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D602" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -15493,16 +15493,16 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Strongtrick</t>
+          <t>Strongtrick Mage</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D603" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -15518,16 +15518,16 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Strongtrick Mage</t>
+          <t>Taaren</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D604" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -15543,16 +15543,16 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Taaren</t>
+          <t>Tadrin Dard</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D605" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -15568,16 +15568,16 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tadrin Dard</t>
+          <t>Tal Profit</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D606" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -15593,16 +15593,16 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tal Profit</t>
+          <t>Taldo Phzin</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D607" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -15618,16 +15618,16 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Taldo Phzin</t>
+          <t>Tdhzin</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D608" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -15643,16 +15643,16 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Tdhzin</t>
+          <t>Tebatico</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D609" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -15668,16 +15668,16 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Tebatico</t>
+          <t>Tefuro Olho</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D610" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -15693,16 +15693,16 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tefuro Olho</t>
+          <t>Telos Rapius</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D611" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -15718,16 +15718,16 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Telos Rapius</t>
+          <t>Ten All</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D612" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Ten All</t>
+          <t>Terra Sumo</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -15768,16 +15768,16 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Terra Sumo</t>
+          <t>Test Macho</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D614" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -15793,16 +15793,16 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Test Macho</t>
+          <t>The Croatoan</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D615" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -15818,16 +15818,16 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>The Croatoan</t>
+          <t>Theia Melun</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Exalted Monk</t>
         </is>
       </c>
       <c r="D616" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -15843,16 +15843,16 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Theia Melun</t>
+          <t>Theo Look</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Exalted Monk</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D617" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -15868,16 +15868,16 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Theo Look</t>
+          <t>Theusziiiiinn</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D618" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -15893,16 +15893,16 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Theusziiiiinn</t>
+          <t>Thheeoo</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Exalted Monk</t>
         </is>
       </c>
       <c r="D619" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -15918,16 +15918,16 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Thheeoo</t>
+          <t>Thirteen All</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Exalted Monk</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D620" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -15943,16 +15943,16 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Thirteen All</t>
+          <t>Thiryathz Club</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D621" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Thiryathz Club</t>
+          <t>This Stox</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -15977,7 +15977,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -15993,16 +15993,16 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>This Stox</t>
+          <t>Three All</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D623" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -16018,16 +16018,16 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Three All</t>
+          <t>Tibero Raiz</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D624" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -16043,16 +16043,16 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Tibero Raiz</t>
+          <t>Toka Fire</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D625" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -16068,16 +16068,16 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Toka Fire</t>
+          <t>Toledo Pantanal</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D626" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Toledo Pantanal</t>
+          <t>Tonizao</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -16118,16 +16118,16 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Tonizao</t>
+          <t>Top Chiclayo</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D628" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -16143,16 +16143,16 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Top Chiclayo</t>
+          <t>Tormenta Ruidosa</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D629" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -16168,16 +16168,16 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Tormenta Ruidosa</t>
+          <t>Tozinkk</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D630" t="n">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -16193,16 +16193,16 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Tozinkk</t>
+          <t>Treinando Fino</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D631" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -16218,16 +16218,16 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Treinando Fino</t>
+          <t>Troy Nick</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D632" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -16243,16 +16243,16 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Troy Nick</t>
+          <t>Tupac Pitbull Trocatiro</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D633" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Tupac Pitbull Trocatiro</t>
+          <t>Turri Senpai</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D634" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -16293,16 +16293,16 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Turri Senpai</t>
+          <t>Tuttim Axe</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D635" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tuttim Axe</t>
+          <t>Tuttim Club</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -16343,12 +16343,12 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tuttim Club</t>
+          <t>Tuttim Druid</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -16368,12 +16368,12 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Tuttim Druid</t>
+          <t>Tuttim Shooter</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D638" t="n">
@@ -16393,12 +16393,12 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Tuttim Shooter</t>
+          <t>Tuttim Sorc</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -16418,16 +16418,16 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Tuttim Sorc</t>
+          <t>Twelven All</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D640" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Twelven All</t>
+          <t>Two All</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -16468,16 +16468,16 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Two All</t>
+          <t>Vetano Sorcerer</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Sorcerer</t>
         </is>
       </c>
       <c r="D642" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -16493,16 +16493,16 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Vetano Sorcerer</t>
+          <t>Vinicius Rato</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D643" t="n">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -16518,16 +16518,16 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Vinicius Rato</t>
+          <t>Volkorz</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D644" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -16543,16 +16543,16 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Volkorz</t>
+          <t>Warrior Nydiah</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D645" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Warrior Nydiah</t>
+          <t>Weslynho Cabelo (Pouca Telha)</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -16577,7 +16577,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Weslynho Cabelo (Pouca Telha)</t>
+          <t>Wolf kirito</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -16618,16 +16618,16 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Wolf kirito</t>
+          <t>Wyara</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D648" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -16643,16 +16643,16 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Wyara</t>
+          <t>Xannoraia</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Druid</t>
         </is>
       </c>
       <c r="D649" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -16668,16 +16668,16 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Xannoraia</t>
+          <t>Xavico Maha</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>Druid</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D650" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -16693,16 +16693,16 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Xavico Maha</t>
+          <t>Xenivlag</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D651" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -16718,16 +16718,16 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Xenivlag</t>
+          <t>Yasuo Open</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>Sorcerer</t>
+          <t>Elite Knight</t>
         </is>
       </c>
       <c r="D652" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -16743,16 +16743,16 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Yasuo Open</t>
+          <t>Yorgz</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>Elite Knight</t>
+          <t>Elder Druid</t>
         </is>
       </c>
       <c r="D653" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -16768,16 +16768,16 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Yorgz</t>
+          <t>Ze do</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Elder Druid</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="D654" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16793,16 +16793,16 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Ze do</t>
+          <t>Zennaiide</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D655" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -16818,16 +16818,16 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Zennaiide</t>
+          <t>Zephirothh Eclipse</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Royal Paladin</t>
         </is>
       </c>
       <c r="D656" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16843,16 +16843,16 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Zephirothh Eclipse</t>
+          <t>Zetiwin Arlammy</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Royal Paladin</t>
+          <t>Master Sorcerer</t>
         </is>
       </c>
       <c r="D657" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16868,43 +16868,18 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Zetiwin Arlammy</t>
+          <t>Zumbadit Renrie</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Master Sorcerer</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D658" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E658" t="inlineStr">
-        <is>
-          <t>offline</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>Sem Rank</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>Zumbadit Renrie</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>Paladin</t>
-        </is>
-      </c>
-      <c r="D659" t="n">
-        <v>43</v>
-      </c>
-      <c r="E659" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
